--- a/doc/Rapports/Liste de composants.xlsx
+++ b/doc/Rapports/Liste de composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulbi\Dropbox\Mon PC (DESKTOP-CNV4O85)\Desktop\Travail\ROB3\Rob_exp\Projet\Snoopytech\doc\Rapports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A3A9C-BF48-4647-97FA-AF30C1DB20D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A32A09-B0F6-4D57-BA91-0C68962DA88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Nom</t>
   </si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve"> ESC 40A</t>
   </si>
   <si>
-    <t>https://fr.aliexpress.com/item/4000292454786.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=296730740870&amp;ds_e_product_id=fr4000292454786&amp;ds_e_product_merchant_id=106992425&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjw-fmZBhDtARIsAH6H8qg0xGJT5TuMJTSXX2NO4JghrvjhYpg7kQS8e3w4SDpBwubPR3ropRwaAvvTEALw_wcB&amp;aff_fcid=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;terminal_id=92cee12862e14454b4d4f189f0ccc9be&amp;afSmartRedirect=y/</t>
-  </si>
-  <si>
     <t>Color: 4xESC with wires</t>
   </si>
   <si>
@@ -141,6 +138,42 @@
   </si>
   <si>
     <t>Poids total</t>
+  </si>
+  <si>
+    <t>ZMR – ESC bidirectionnel sans balais 12A/20A/30A/40A/50A/60A/80A, pour voiture télécommandée, hélice sous marine pneumatique | AliExpress</t>
+  </si>
+  <si>
+    <t>Courroie</t>
+  </si>
+  <si>
+    <t>Largeur 6mm; longueur 5m</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/10000115962505.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=297309937645&amp;ds_e_product_id=fr10000115962505&amp;ds_e_product_merchant_id=105678845&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjwnbmaBhD-ARIsAGTPcfU-EgQpYYwhklwlaTQg0KNby92VnMQeyR5fbd4lis75yAzXla3fv4YaAqj8EALw_wcB&amp;aff_fcid=e874b5c8f57b48ae935af5e744a10555-1666083041567-06995-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=e874b5c8f57b48ae935af5e744a10555-1666083041567-06995-UneMJZVf&amp;terminal_id=7109d70af6dc4a19a09bbe125bfd114d&amp;afSmartRedirect=y</t>
+  </si>
+  <si>
+    <t>Poulis</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005002226516848.html?spm=a2g0o.productlist.0.0.7afd5440pCww6V&amp;ad_pvid=202210180153269689169860306820006827501_2&amp;s=p</t>
+  </si>
+  <si>
+    <t>diamètre d'alésage 12 teeth Bore 5mm ; largeur 6mm</t>
+  </si>
+  <si>
+    <t>Fixation courroie</t>
+  </si>
+  <si>
+    <t>Maecoom 10/20pcs 3D Imprimante Pièces GT2 Ouvert Ceinture Clip Ouvert fin Courroies Ceinture pince À Sertir | AliExpress</t>
+  </si>
+  <si>
+    <t>Taille: 20 pcs</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/33006573082.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=297309937645&amp;ds_e_product_id=fr33006573082&amp;ds_e_product_merchant_id=109338486&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjwnbmaBhD-ARIsAGTPcfVA-9s_9EV0tEel0zyrJPGZgKcMZNkyZZ4BNZPjZz7d-VhZrpSIK4gaAouAEALw_wcB&amp;aff_fcid=a7ef4aa5f3894953875f3aece87cd67c-1666084659628-09809-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=a7ef4aa5f3894953875f3aece87cd67c-1666084659628-09809-UneMJZVf&amp;terminal_id=7109d70af6dc4a19a09bbe125bfd114d&amp;afSmartRedirect=y</t>
+  </si>
+  <si>
+    <t>Longueur MR106ZZ</t>
   </si>
 </sst>
 </file>
@@ -274,11 +307,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,7 +330,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,6 +377,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,539 +765,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AMJ32"/>
+  <dimension ref="A3:AMH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="11.44140625" style="2"/>
-    <col min="8" max="8" width="16.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" style="2" customWidth="1"/>
-    <col min="10" max="1024" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" style="1" customWidth="1"/>
+    <col min="8" max="1022" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="C5" s="7">
         <f>18.37+4.99</f>
         <v>23.36</v>
       </c>
-      <c r="F5" s="8">
-        <f>E5*D5</f>
+      <c r="D5" s="7">
+        <f>C5*B5</f>
         <v>23.36</v>
       </c>
-      <c r="G5" s="7">
+      <c r="E5" s="6">
         <v>71</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6*B6</f>
+        <v>13.32</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.35</v>
+      </c>
+      <c r="D7" s="7">
+        <f>C7*B7</f>
+        <v>3.35</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.32</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8*B8</f>
+        <v>3.32</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.46</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9*B9</f>
+        <v>3.46</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="E6" s="8">
+      <c r="C10" s="7">
         <v>0.95</v>
       </c>
-      <c r="F6" s="8">
-        <f>E6*D6</f>
+      <c r="D10" s="7">
+        <f>C10*B10</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13">
+      <c r="B12" s="11">
         <v>12</v>
       </c>
-      <c r="E8" s="14">
+      <c r="C12" s="12">
         <v>26.1</v>
       </c>
-      <c r="F8" s="14">
-        <f>D8*E8</f>
+      <c r="D12" s="12">
+        <f>B12*C12</f>
         <v>313.20000000000005</v>
       </c>
-      <c r="G8" s="13">
+      <c r="E12" s="11">
         <v>155</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14">
-        <v>27.65</v>
-      </c>
-      <c r="F9" s="14">
-        <f>D9*E9</f>
-        <v>110.6</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <v>14.06</v>
+      </c>
+      <c r="D13" s="12">
+        <f>B13*C13</f>
+        <v>168.72</v>
+      </c>
+      <c r="E13" s="11">
         <f>33.2*4</f>
         <v>132.80000000000001</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="F13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="18" t="s">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17">
+        <v>109.99</v>
+      </c>
+      <c r="D15" s="17">
+        <f>C15*B15</f>
+        <v>109.99</v>
+      </c>
+      <c r="E15" s="16">
+        <v>363</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18">
+      <c r="G15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="19">
-        <v>109.99</v>
-      </c>
-      <c r="F11" s="19">
-        <f>E11*D11</f>
-        <v>109.99</v>
-      </c>
-      <c r="G11" s="18">
-        <v>363</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="C16" s="17">
+        <v>1.23</v>
+      </c>
+      <c r="D16" s="17">
+        <f>C16*B16</f>
+        <v>1.23</v>
+      </c>
+      <c r="E16" s="16">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18">
+      <c r="G16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="17">
+        <f>C17*B17</f>
+        <v>3.8</v>
+      </c>
+      <c r="E17" s="16">
+        <v>9</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="19">
-        <v>1.23</v>
-      </c>
-      <c r="F12" s="19">
-        <f>E12*D12</f>
-        <v>1.23</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="C18" s="17">
+        <v>6.28</v>
+      </c>
+      <c r="D18" s="17">
+        <f>C18*B18</f>
+        <v>6.28</v>
+      </c>
+      <c r="E18" s="16">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1.9</v>
-      </c>
-      <c r="F13" s="19">
-        <f>E13*D13</f>
-        <v>3.8</v>
-      </c>
-      <c r="G13" s="18">
-        <v>9</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="18">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="16">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="17">
+        <f>C19*B19+2</f>
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="20">
         <v>1</v>
       </c>
-      <c r="E14" s="19">
-        <v>6.28</v>
-      </c>
-      <c r="F14" s="19">
-        <f>E14*D14</f>
-        <v>6.28</v>
-      </c>
-      <c r="G14" s="18">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="18">
-        <v>3</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0.51</v>
-      </c>
-      <c r="F15" s="19">
-        <f>E15*D15+2</f>
-        <v>3.5300000000000002</v>
-      </c>
-      <c r="G15" s="18">
-        <v>10</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="C20" s="21">
         <f>1.42+1.17</f>
         <v>2.59</v>
       </c>
-      <c r="F16" s="23">
-        <f>E16*D16</f>
+      <c r="D20" s="21">
+        <f>C20*B20</f>
         <v>2.59</v>
       </c>
-      <c r="G16" s="22">
+      <c r="E20" s="20">
         <v>6</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="F20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="23">
+        <f>SUM(D5:D20)</f>
+        <v>667.55</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="25">
-        <f>SUM(F5:F16)</f>
-        <v>585.98</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="24">
-        <f>SUM(J20:J31)</f>
-        <v>2970.6</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" s="26">
-        <f t="shared" ref="J20:J31" si="0">G5*D5</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21" s="26">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="25"/>
+      <c r="E21" s="22">
+        <f>SUM(H24:H35)</f>
+        <v>4033.0000000000005</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" s="26">
-        <f t="shared" si="0"/>
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24" s="26">
-        <f t="shared" si="0"/>
-        <v>531.20000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="24">
+        <f>E5*B5</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H25" s="24">
+        <f t="shared" ref="H25:H35" si="0">E10*B10</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26" s="26">
+      <c r="H26" s="24">
         <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" s="26">
+      <c r="H27" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" s="26">
+      <c r="H28" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+        <v>1593.6000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29" s="26">
+      <c r="H29" s="24">
         <f t="shared" si="0"/>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30" s="26">
+      <c r="H30" s="24">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31" s="26">
+      <c r="H31" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="H32" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" s="24">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" display="https://fr.aliexpress.com/item/1005002248466483.html?spm=a2g0o.productlist.0.0.26b421abnfmSYq&amp;algo_pvid=47e13833-caa3-437f-9553-01e57919688d&amp;algo_exp_id=47e13833-caa3-437f-9553-01e57919688d-45&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000019728171207%22%7D&amp;pdp_npi=2%40dis%21EUR%218.39%217.14%21%21%214.99%21%21%400b0a050b16651254583308408eed58%2112000019728171207%21sea&amp;curPageLogUid=nz516Ros1nuv" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H6" r:id="rId2" display="https://fr.aliexpress.com/item/32997948364.html?algo_pvid=f64572da-108a-4531-a5a0-b856b462b1c6&amp;algo_exp_id=f64572da-108a-4531-a5a0-b856b462b1c6-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266958865882%22%7D&amp;pdp_npi=2%40dis%21EUR%210.95%210.95%21%21%212.76%21%21%400b0a187b16651255256126173ec49c%2166958865882%21sea&amp;curPageLogUid=OfDWACxdeGQE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H9" r:id="rId4" display="https://fr.aliexpress.com/item/4000292454786.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=296730740870&amp;ds_e_product_id=fr4000292454786&amp;ds_e_product_merchant_id=106992425&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjw-fmZBhDtARIsAH6H8qg0xGJT5TuMJTSXX2NO4JghrvjhYpg7kQS8e3w4SDpBwubPR3ropRwaAvvTEALw_wcB&amp;aff_fcid=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;terminal_id=92cee12862e14454b4d4f189f0ccc9be&amp;afSmartRedirect=y/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H11" r:id="rId5" display="https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H12" r:id="rId6" display="https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H14" r:id="rId8" display="https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H15" r:id="rId9" display="https://fr.aliexpress.com/item/1005001421294754.html?spm=a2g0o.detail.1000014.14.6d93d6c1kfyDHn&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=0c4a9003-02ec-45be-823d-ab61eb9fdcb9&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:0c4a9003-02ec-45be-823d-ab61eb9fdcb9,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000016052827770%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%210.64%210.5%21%21%21%21%21%402101f6b416658298845222455e1af7%2112000016052827770%21rec" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H16" r:id="rId10" display="https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F5" r:id="rId1" display="https://fr.aliexpress.com/item/1005002248466483.html?spm=a2g0o.productlist.0.0.26b421abnfmSYq&amp;algo_pvid=47e13833-caa3-437f-9553-01e57919688d&amp;algo_exp_id=47e13833-caa3-437f-9553-01e57919688d-45&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000019728171207%22%7D&amp;pdp_npi=2%40dis%21EUR%218.39%217.14%21%21%214.99%21%21%400b0a050b16651254583308408eed58%2112000019728171207%21sea&amp;curPageLogUid=nz516Ros1nuv" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F10" r:id="rId2" display="https://fr.aliexpress.com/item/32997948364.html?algo_pvid=f64572da-108a-4531-a5a0-b856b462b1c6&amp;algo_exp_id=f64572da-108a-4531-a5a0-b856b462b1c6-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266958865882%22%7D&amp;pdp_npi=2%40dis%21EUR%210.95%210.95%21%21%212.76%21%21%400b0a187b16651255256126173ec49c%2166958865882%21sea&amp;curPageLogUid=OfDWACxdeGQE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F15" r:id="rId4" display="https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F16" r:id="rId5" display="https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F18" r:id="rId7" display="https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F19" r:id="rId8" display="https://fr.aliexpress.com/item/1005001421294754.html?spm=a2g0o.detail.1000014.14.6d93d6c1kfyDHn&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=0c4a9003-02ec-45be-823d-ab61eb9fdcb9&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:0c4a9003-02ec-45be-823d-ab61eb9fdcb9,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000016052827770%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%210.64%210.5%21%21%21%21%21%402101f6b416658298845222455e1af7%2112000016052827770%21rec" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F20" r:id="rId9" display="https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId10" display="https://fr.aliexpress.com/item/1005003569012758.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=296730740870&amp;ds_e_product_id=fr1005003569012758&amp;ds_e_product_merchant_id=109241077&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjwnbmaBhD-ARIsAGTPcfWWzA9P5DwEu5zBYQZJn1ieDrkRj5TGZdhvXd8Y0jRsakiEaTmaGdEaAsjfEALw_wcB&amp;aff_fcid=4c8c05119b544369994409970242d6dd-1666083518509-01615-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=4c8c05119b544369994409970242d6dd-1666083518509-01615-UneMJZVf&amp;terminal_id=7109d70af6dc4a19a09bbe125bfd114d&amp;afSmartRedirect=y" xr:uid="{479DEEEA-E38E-4DA6-A0D8-78B1D0ED7BA2}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{D84981B8-EB4E-4915-AB70-2AB027BE0B67}"/>
+    <hyperlink ref="F7" r:id="rId12" display="https://fr.aliexpress.com/item/1005003144053397.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=448836400057&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=1306820800280&amp;ds_e_product_id=fr1005003144053397&amp;ds_e_product_merchant_id=477639041&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=10564357377&amp;albag=104632701295&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjwnbmaBhD-ARIsAGTPcfXGoGVWxsuGSGXHlBIA7fQnCqC17inulmnOPX_LM2mfFQvT66gmhCcaAijoEALw_wcB&amp;aff_fcid=fa23388db9a3461681db68722b98ec6f-1666084304092-01289-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=fa23388db9a3461681db68722b98ec6f-1666084304092-01289-UneMJZVf&amp;terminal_id=7109d70af6dc4a19a09bbe125bfd114d&amp;afSmartRedirect=y" xr:uid="{397FF25E-543B-439A-A095-727C6E00FE59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/doc/Rapports/Liste de composants.xlsx
+++ b/doc/Rapports/Liste de composants.xlsx
@@ -91,27 +91,7 @@
     <t xml:space="preserve">https://fr.aliexpress.com/item/33006573082.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=297309937645&amp;ds_e_product_id=fr33006573082&amp;ds_e_product_merchant_id=109338486&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjwnbmaBhD-ARIsAGTPcfVA-9s_9EV0tEel0zyrJPGZgKcMZNkyZZ4BNZPjZz7d-VhZrpSIK4gaAouAEALw_wcB&amp;aff_fcid=a7ef4aa5f3894953875f3aece87cd67c-1666084659628-09809-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=a7ef4aa5f3894953875f3aece87cd67c-1666084659628-09809-UneMJZVf&amp;terminal_id=7109d70af6dc4a19a09bbe125bfd114d&amp;afSmartRedirect=y</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Longueur MR106ZZ</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> /!\</t>
-    </r>
+    <t xml:space="preserve">Longueur MR106ZZ /!\</t>
   </si>
   <si>
     <t xml:space="preserve">Longueur: MR85ZZ /!\</t>
@@ -135,7 +115,7 @@
     <t xml:space="preserve">ZMR – ESC bidirectionnel sans balais 12A/20A/30A/40A/50A/60A/80A, pour voiture télécommandée, hélice sous marine pneumatique | AliExpress</t>
   </si>
   <si>
-    <t xml:space="preserve">Color: 4xESC with wires</t>
+    <t xml:space="preserve">Couleur: 40A (2-6S)</t>
   </si>
   <si>
     <t xml:space="preserve">Capteurs</t>
@@ -192,7 +172,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* \-??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,13 +209,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -532,7 +505,7 @@
   <dimension ref="A3:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/Rapports/Liste de composants.xlsx
+++ b/doc/Rapports/Liste de composants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -106,7 +106,10 @@
     <t xml:space="preserve">Brushless ACK-5312CP</t>
   </si>
   <si>
-    <t xml:space="preserve">https://french.alibaba.com/product-detail/ACK-factory-High-End-Brushless-Motor-60113882656.html</t>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/33027613653.html?spm=a2g0o.detail.1000014.1.17b2287ekaLzga&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.14452.226710.0&amp;scm_id=1007.14452.226710.0&amp;scm-url=1007.14452.226710.0&amp;pvid=d425404d-4615-440e-bf21-b715ba417a18&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.14452.226710.0,pvid:d425404d-4615-440e-bf21-b715ba417a18,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2267322948405%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%2132.8%2122.96%21%21%21%21%21%402101f6b416664428609162342ec9b2%2167322948405%21rec&amp;ad_pvid=202210220547410918139926548578627761_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couleur: 6pcs 5010 360KV </t>
   </si>
   <si>
     <t xml:space="preserve"> ESC 40A</t>
@@ -505,7 +508,7 @@
   <dimension ref="A3:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,33 +734,33 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>26.1</v>
+        <v>116.43</v>
       </c>
       <c r="D13" s="12" t="n">
         <f aca="false">B13*C13</f>
-        <v>313.2</v>
+        <v>232.86</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="11" t="n">
         <v>12</v>
@@ -774,15 +777,15 @@
         <v>132.8</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -793,7 +796,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>1</v>
@@ -809,7 +812,7 @@
         <v>363</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>12</v>
@@ -817,7 +820,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>12</v>
@@ -841,7 +844,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>2</v>
@@ -857,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>12</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>1</v>
@@ -881,7 +884,7 @@
         <v>18.4</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>12</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>3</v>
@@ -905,15 +908,15 @@
         <v>10</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="20" t="n">
         <v>1</v>
@@ -930,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>12</v>
@@ -942,15 +945,15 @@
       </c>
       <c r="B22" s="23" t="n">
         <f aca="false">SUM(D5:D21)</f>
-        <v>671.01</v>
+        <v>590.67</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="22" t="n">
         <f aca="false">SUM(H25:H36)</f>
-        <v>4033</v>
+        <v>2333</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -976,7 +979,7 @@
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="25" t="n">
         <f aca="false">E13*B13</f>
-        <v>1860</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,7 +1039,7 @@
     <hyperlink ref="F6" r:id="rId2" display="https://fr.aliexpress.com/item/1005002226516848.html?spm=a2g0o.productlist.0.0.7afd5440pCww6V&amp;ad_pvid=202210180153269689169860306820006827501_2&amp;s=p"/>
     <hyperlink ref="F7" r:id="rId3" display="Maecoom 10/20pcs 3D Imprimante Pièces GT2 Ouvert Ceinture Clip Ouvert fin Courroies Ceinture pince À Sertir | AliExpress"/>
     <hyperlink ref="F11" r:id="rId4" display="https://fr.aliexpress.com/item/32997948364.html?algo_pvid=f64572da-108a-4531-a5a0-b856b462b1c6&amp;algo_exp_id=f64572da-108a-4531-a5a0-b856b462b1c6-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266958865882%22%7D&amp;pdp_npi=2%40dis%21EUR%210.95%210.95%21%21%212.76%21%21%400b0a187b16651255256126173ec49c%2166958865882%21sea&amp;curPageLogUid=OfDWACxdeGQE"/>
-    <hyperlink ref="F13" r:id="rId5" display="https://french.alibaba.com/product-detail/ACK-factory-High-End-Brushless-Motor-60113882656.html"/>
+    <hyperlink ref="F13" r:id="rId5" display="https://fr.aliexpress.com/item/33027613653.html?spm=a2g0o.detail.1000014.1.17b2287ekaLzga&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.14452.226710.0&amp;scm_id=1007.14452.226710.0&amp;scm-url=1007.14452.226710.0&amp;pvid=d425404d-4615-440e-bf21-b715ba417a18&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.14452.226710.0,pvid:d425404d-4615-440e-bf21-b715ba417a18,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2267322948405%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%2132.8%2122.96%21%21%21%21%21%402101f6b416664428609162342ec9b2%2167322948405%21rec&amp;ad_pvid=202210220547410918139926548578627761_0"/>
     <hyperlink ref="F14" r:id="rId6" display="ZMR – ESC bidirectionnel sans balais 12A/20A/30A/40A/50A/60A/80A, pour voiture télécommandée, hélice sous marine pneumatique | AliExpress"/>
     <hyperlink ref="F16" r:id="rId7" display="https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219"/>
     <hyperlink ref="F17" r:id="rId8" display="https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl"/>
